--- a/data/pauling.xlsx
+++ b/data/pauling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danila/Documents/GitHub/PCA-table/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danila/Documents/GitHub/pca-plsda-activity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75666192-D6C9-0643-92A1-750D043D1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A5FB3-8061-BF46-9876-C9A75B7EB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="-4920" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>Formula</t>
   </si>
@@ -64,36 +64,12 @@
     <t>Pm-3m</t>
   </si>
   <si>
-    <t>AlNi</t>
-  </si>
-  <si>
     <t>AuZn</t>
   </si>
   <si>
-    <t>BiTl</t>
-  </si>
-  <si>
-    <t>BrCs</t>
-  </si>
-  <si>
-    <t>BrTl</t>
-  </si>
-  <si>
-    <t>ClCs</t>
-  </si>
-  <si>
     <t>CsI</t>
   </si>
   <si>
-    <t>FRb</t>
-  </si>
-  <si>
-    <t>ITl</t>
-  </si>
-  <si>
-    <t>SbTl</t>
-  </si>
-  <si>
     <t>AgBr</t>
   </si>
   <si>
@@ -118,33 +94,6 @@
     <t>BeO</t>
   </si>
   <si>
-    <t>BrK</t>
-  </si>
-  <si>
-    <t>BrLi</t>
-  </si>
-  <si>
-    <t>BrNa</t>
-  </si>
-  <si>
-    <t>BrRb</t>
-  </si>
-  <si>
-    <t>CNb</t>
-  </si>
-  <si>
-    <t>CTa</t>
-  </si>
-  <si>
-    <t>CTi</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CZr</t>
-  </si>
-  <si>
     <t>CaO</t>
   </si>
   <si>
@@ -160,48 +109,15 @@
     <t>CdO</t>
   </si>
   <si>
-    <t>ClK</t>
-  </si>
-  <si>
-    <t>ClLi</t>
-  </si>
-  <si>
-    <t>ClNa</t>
-  </si>
-  <si>
-    <t>ClRb</t>
-  </si>
-  <si>
     <t>CoO</t>
   </si>
   <si>
     <t>CsF</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>FLi</t>
-  </si>
-  <si>
-    <t>FNa</t>
-  </si>
-  <si>
     <t>FeO</t>
   </si>
   <si>
-    <t>IK</t>
-  </si>
-  <si>
-    <t>ILi</t>
-  </si>
-  <si>
-    <t>INa</t>
-  </si>
-  <si>
-    <t>IRb</t>
-  </si>
-  <si>
     <t>MgO</t>
   </si>
   <si>
@@ -220,27 +136,9 @@
     <t>MnSe</t>
   </si>
   <si>
-    <t>NNb</t>
-  </si>
-  <si>
-    <t>NSc</t>
-  </si>
-  <si>
-    <t>NTi</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>NZr</t>
-  </si>
-  <si>
     <t>NiO</t>
   </si>
   <si>
-    <t>OSr</t>
-  </si>
-  <si>
     <t>PbS</t>
   </si>
   <si>
@@ -250,9 +148,6 @@
     <t>PbTe</t>
   </si>
   <si>
-    <t>SSr</t>
-  </si>
-  <si>
     <t>SnTe</t>
   </si>
   <si>
@@ -271,18 +166,12 @@
     <t>AlP</t>
   </si>
   <si>
-    <t>AsGa</t>
-  </si>
-  <si>
     <t>BeSe</t>
   </si>
   <si>
     <t>BeTe</t>
   </si>
   <si>
-    <t>BrCu</t>
-  </si>
-  <si>
     <t>CdS</t>
   </si>
   <si>
@@ -304,15 +193,6 @@
     <t>InSb</t>
   </si>
   <si>
-    <t>SZn</t>
-  </si>
-  <si>
-    <t>SeZn</t>
-  </si>
-  <si>
-    <t>TeZn</t>
-  </si>
-  <si>
     <t>Structure type</t>
   </si>
   <si>
@@ -323,19 +203,135 @@
   </si>
   <si>
     <t>ZnS</t>
+  </si>
+  <si>
+    <t>NiAl</t>
+  </si>
+  <si>
+    <t>TlBi</t>
+  </si>
+  <si>
+    <t>CsBr</t>
+  </si>
+  <si>
+    <t>TlBr</t>
+  </si>
+  <si>
+    <t>RbF</t>
+  </si>
+  <si>
+    <t>TlI</t>
+  </si>
+  <si>
+    <t>TlSb</t>
+  </si>
+  <si>
+    <t>KBr</t>
+  </si>
+  <si>
+    <t>LiBr</t>
+  </si>
+  <si>
+    <t>NaBr</t>
+  </si>
+  <si>
+    <t>RbBr</t>
+  </si>
+  <si>
+    <t>NbC</t>
+  </si>
+  <si>
+    <t>TaC</t>
+  </si>
+  <si>
+    <t>TiC</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>ZrC</t>
+  </si>
+  <si>
+    <t>KCl</t>
+  </si>
+  <si>
+    <t>LiCl</t>
+  </si>
+  <si>
+    <t>RbCl</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>LiF</t>
+  </si>
+  <si>
+    <t>NaF</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>LiI</t>
+  </si>
+  <si>
+    <t>NaI</t>
+  </si>
+  <si>
+    <t>RbI</t>
+  </si>
+  <si>
+    <t>NbN</t>
+  </si>
+  <si>
+    <t>ScN</t>
+  </si>
+  <si>
+    <t>TiN</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>ZrN</t>
+  </si>
+  <si>
+    <t>SrO</t>
+  </si>
+  <si>
+    <t>SrS</t>
+  </si>
+  <si>
+    <t>GaAs</t>
+  </si>
+  <si>
+    <t>CuBr</t>
+  </si>
+  <si>
+    <t>ZnSe</t>
+  </si>
+  <si>
+    <t>ZnTe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -354,13 +350,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +684,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,11 +695,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -708,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>132.19999999999999</v>
@@ -728,10 +742,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>85.7</v>
@@ -751,10 +765,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>262.3</v>
@@ -774,10 +788,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>413.4</v>
@@ -797,10 +811,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>212.8</v>
@@ -820,10 +834,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1">
         <v>284.3</v>
@@ -843,10 +857,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>168.4</v>
@@ -866,10 +880,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>259.8</v>
@@ -889,10 +903,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>104.5</v>
@@ -912,10 +926,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
         <v>331.3</v>
@@ -935,10 +949,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
         <v>326.10000000000002</v>
@@ -958,10 +972,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1">
         <v>187.8</v>
@@ -976,15 +990,15 @@
         <v>225</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>143.30000000000001</v>
@@ -999,15 +1013,15 @@
         <v>225</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1">
         <v>126.9</v>
@@ -1022,15 +1036,15 @@
         <v>225</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1">
         <v>153.30000000000001</v>
@@ -1045,15 +1059,15 @@
         <v>225</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>169.4</v>
@@ -1068,15 +1082,15 @@
         <v>225</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
         <v>264.89999999999998</v>
@@ -1091,15 +1105,15 @@
         <v>225</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <v>25</v>
@@ -1114,15 +1128,15 @@
         <v>225</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>119</v>
@@ -1137,15 +1151,15 @@
         <v>225</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1">
         <v>86.8</v>
@@ -1160,15 +1174,15 @@
         <v>225</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>102.9</v>
@@ -1183,15 +1197,15 @@
         <v>225</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>165.4</v>
@@ -1206,15 +1220,15 @@
         <v>225</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1">
         <v>104.9</v>
@@ -1229,15 +1243,15 @@
         <v>225</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>193</v>
@@ -1252,15 +1266,15 @@
         <v>225</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>59.9</v>
@@ -1275,15 +1289,15 @@
         <v>225</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1">
         <v>63</v>
@@ -1298,15 +1312,15 @@
         <v>225</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
         <v>103.2</v>
@@ -1321,15 +1335,15 @@
         <v>225</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
         <v>56.1</v>
@@ -1344,15 +1358,15 @@
         <v>225</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>72.099999999999994</v>
@@ -1367,15 +1381,15 @@
         <v>225</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1">
         <v>119</v>
@@ -1390,15 +1404,15 @@
         <v>225</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1">
         <v>167.7</v>
@@ -1413,15 +1427,15 @@
         <v>225</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
         <v>128.4</v>
@@ -1436,15 +1450,15 @@
         <v>225</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
         <v>74.599999999999994</v>
@@ -1459,15 +1473,15 @@
         <v>225</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1">
         <v>42.4</v>
@@ -1482,15 +1496,15 @@
         <v>225</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1">
         <v>58.4</v>
@@ -1505,15 +1519,15 @@
         <v>225</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1">
         <v>120.9</v>
@@ -1528,15 +1542,15 @@
         <v>225</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1">
         <v>74.900000000000006</v>
@@ -1551,15 +1565,15 @@
         <v>225</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1">
         <v>151.9</v>
@@ -1574,15 +1588,15 @@
         <v>225</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1">
         <v>58.1</v>
@@ -1597,15 +1611,15 @@
         <v>225</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1">
         <v>25.9</v>
@@ -1620,15 +1634,15 @@
         <v>225</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1">
         <v>42</v>
@@ -1643,15 +1657,15 @@
         <v>225</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
         <v>104.5</v>
@@ -1666,15 +1680,15 @@
         <v>225</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1">
         <v>71.8</v>
@@ -1689,15 +1703,15 @@
         <v>225</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1">
         <v>166</v>
@@ -1712,15 +1726,15 @@
         <v>225</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1">
         <v>133.80000000000001</v>
@@ -1735,15 +1749,15 @@
         <v>225</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1">
         <v>149.9</v>
@@ -1758,15 +1772,15 @@
         <v>225</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>212.4</v>
@@ -1781,15 +1795,15 @@
         <v>225</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1">
         <v>40.299999999999997</v>
@@ -1804,15 +1818,15 @@
         <v>225</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C50" s="1">
         <v>56.4</v>
@@ -1827,15 +1841,15 @@
         <v>225</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1">
         <v>103.3</v>
@@ -1850,15 +1864,15 @@
         <v>225</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
         <v>70.900000000000006</v>
@@ -1873,15 +1887,15 @@
         <v>225</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1">
         <v>87</v>
@@ -1896,15 +1910,15 @@
         <v>225</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>133.9</v>
@@ -1919,15 +1933,15 @@
         <v>225</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1">
         <v>106.9</v>
@@ -1942,15 +1956,15 @@
         <v>225</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C56" s="1">
         <v>59</v>
@@ -1965,15 +1979,15 @@
         <v>225</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1">
         <v>61.9</v>
@@ -1988,15 +2002,15 @@
         <v>225</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C58" s="1">
         <v>64.900000000000006</v>
@@ -2011,15 +2025,15 @@
         <v>225</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C59" s="1">
         <v>105.2</v>
@@ -2034,15 +2048,15 @@
         <v>225</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C60" s="1">
         <v>74.7</v>
@@ -2057,15 +2071,15 @@
         <v>225</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1">
         <v>103.6</v>
@@ -2080,15 +2094,15 @@
         <v>225</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C62" s="1">
         <v>239.3</v>
@@ -2103,15 +2117,15 @@
         <v>225</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1">
         <v>286.2</v>
@@ -2126,15 +2140,15 @@
         <v>225</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
         <v>334.8</v>
@@ -2149,15 +2163,15 @@
         <v>225</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C65" s="1">
         <v>119.7</v>
@@ -2172,15 +2186,15 @@
         <v>225</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1">
         <v>246.3</v>
@@ -2195,15 +2209,15 @@
         <v>225</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1">
         <v>215.2</v>
@@ -2218,15 +2232,15 @@
         <v>225</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1">
         <v>234.8</v>
@@ -2241,15 +2255,15 @@
         <v>216</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1">
         <v>101.9</v>
@@ -2264,15 +2278,15 @@
         <v>216</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>58</v>
@@ -2287,15 +2301,15 @@
         <v>216</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1">
         <v>144.6</v>
@@ -2310,15 +2324,15 @@
         <v>216</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C72" s="1">
         <v>88</v>
@@ -2333,15 +2347,15 @@
         <v>216</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C73" s="1">
         <v>136.6</v>
@@ -2356,15 +2370,15 @@
         <v>216</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C74" s="1">
         <v>143.4</v>
@@ -2379,15 +2393,15 @@
         <v>216</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C75" s="1">
         <v>144.5</v>
@@ -2402,15 +2416,15 @@
         <v>216</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C76" s="1">
         <v>240</v>
@@ -2425,15 +2439,15 @@
         <v>216</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C77" s="1">
         <v>191.5</v>
@@ -2448,15 +2462,15 @@
         <v>216</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C78" s="1">
         <v>232.6</v>
@@ -2471,15 +2485,15 @@
         <v>216</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C79" s="1">
         <v>279.5</v>
@@ -2494,15 +2508,15 @@
         <v>216</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C80" s="1">
         <v>328.2</v>
@@ -2517,15 +2531,15 @@
         <v>216</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C81" s="1">
         <v>236.6</v>
@@ -2540,15 +2554,15 @@
         <v>216</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1">
         <v>97.4</v>
@@ -2563,15 +2577,15 @@
         <v>216</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C83" s="1">
         <v>144.30000000000001</v>
@@ -2586,15 +2600,15 @@
         <v>216</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1">
         <v>193</v>
@@ -2609,7 +2623,7 @@
         <v>216</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2642,6 +2656,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022A78679CC91FE448FD2BE64A6688B30" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d30a10855c8bef242b2d1271c1701087">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a6dc77f-4563-4b57-b6f9-e9a7a4d84a26" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75392b193fca1fd6494af306bba619c5" ns2:_="">
     <xsd:import namespace="3a6dc77f-4563-4b57-b6f9-e9a7a4d84a26"/>
@@ -2809,22 +2838,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF63D93D-1C82-4C60-8F30-1878E43C56EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70653980-CA5B-4253-8AE7-506788FBB7EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E549C8-20FC-4D62-9096-26134C6E5F84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2840,21 +2871,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70653980-CA5B-4253-8AE7-506788FBB7EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF63D93D-1C82-4C60-8F30-1878E43C56EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>